--- a/Collections/Евро/Andorra/#EURO#Andorra#Commemorative[2014-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Andorra/#EURO#Andorra#Commemorative[2014-present]#circulation_quality.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Евро\Andorra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\Andorra\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -102,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>Year</t>
   </si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>600th Anniversary - General Council of Andorra</t>
+  </si>
+  <si>
+    <t>Rev: new map of Europe</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -437,6 +437,28 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -461,27 +483,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -526,35 +529,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="1cent"/>
-      <sheetName val="2cents"/>
-      <sheetName val="5cents"/>
-      <sheetName val="10cents"/>
-      <sheetName val="20cents"/>
-      <sheetName val="50cents"/>
-      <sheetName val="1€"/>
-      <sheetName val="2€"/>
-      <sheetName val="Links"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -838,50 +812,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="12" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" style="12" customWidth="1"/>
-    <col min="7" max="8" width="3.85546875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="12" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="12" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="19" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -894,24 +868,26 @@
       <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2014</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="22">
+      <c r="E3" s="14">
         <v>105000</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -928,19 +904,21 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2015</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D4" s="8"/>
       <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="14">
         <v>85000</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -954,19 +932,21 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>2015</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D5" s="8"/>
       <c r="E5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="14">
         <v>85000</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -981,16 +961,18 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>2016</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="22">
+      <c r="E6" s="14">
         <v>85000</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1007,16 +989,18 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2016</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="8"/>
-      <c r="E7" s="22">
+      <c r="E7" s="14">
         <v>85000</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -1033,19 +1017,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>2017</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="8"/>
       <c r="E8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="14">
         <v>85000</v>
       </c>
       <c r="G8" s="9" t="s">
@@ -1056,19 +1042,21 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>2017</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D9" s="8"/>
       <c r="E9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="14">
         <v>85000</v>
       </c>
       <c r="G9" s="9" t="s">
@@ -1078,16 +1066,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>2018</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="22">
+      <c r="E10" s="14">
         <v>75000</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -1100,16 +1090,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>2018</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="8"/>
+      <c r="C11" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="22">
+      <c r="E11" s="14">
         <v>75000</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -1122,19 +1114,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>2019</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D12" s="8"/>
       <c r="E12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="14">
         <v>60000</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -1144,19 +1138,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2019</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8"/>
+      <c r="C13" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" s="8"/>
       <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="14">
         <v>60000</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -1218,69 +1214,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="26">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="20" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Collections/Евро/Andorra/#EURO#Andorra#Commemorative[2014-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Andorra/#EURO#Andorra#Commemorative[2014-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
   <si>
     <t>Year</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>Rev: new map of Europe</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -459,6 +468,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,8 +495,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -493,6 +505,15 @@
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -509,15 +530,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -532,16 +544,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="4"/>
-    <tableColumn id="2" name="Link" dataDxfId="3" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="2"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -812,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -833,29 +845,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -883,7 +895,7 @@
       <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="8"/>
@@ -911,7 +923,7 @@
       <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="8"/>
@@ -939,7 +951,7 @@
       <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="8"/>
@@ -968,7 +980,7 @@
       <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="8"/>
@@ -996,7 +1008,7 @@
       <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="8"/>
@@ -1024,7 +1036,7 @@
       <c r="B8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="8"/>
@@ -1049,7 +1061,7 @@
       <c r="B9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="8"/>
@@ -1073,7 +1085,7 @@
       <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="8"/>
@@ -1097,7 +1109,7 @@
       <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="8"/>
@@ -1121,7 +1133,7 @@
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="8"/>
@@ -1145,7 +1157,7 @@
       <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="8"/>
@@ -1171,7 +1183,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G13">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1188,7 +1200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1212,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1280,16 +1292,40 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2" location="svodka"/>
     <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B2" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Andorra/#EURO#Andorra#Commemorative[2014-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Andorra/#EURO#Andorra#Commemorative[2014-present]#circulation_quality.xlsx
@@ -471,6 +471,9 @@
     <xf numFmtId="3" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,9 +497,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -845,29 +845,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1299,7 +1299,7 @@
       <c r="B6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       <c r="B7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="22" t="s">
         <v>35</v>
       </c>
     </row>
